--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -629,24 +629,24 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S6" activeCellId="0" sqref="S6"/>
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="34.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="2.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="2.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="2.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="2.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.59"/>
   </cols>
   <sheetData>
@@ -916,11 +916,15 @@
       <c r="E11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="19" t="n">
+        <v>3</v>
+      </c>
       <c r="G11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="19"/>
+      <c r="H11" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="J11" s="20" t="s">
         <v>33</v>
       </c>
@@ -943,11 +947,15 @@
       <c r="E12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="G12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="19"/>
+      <c r="H12" s="19" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16"/>
@@ -963,11 +971,15 @@
       <c r="E13" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="G13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="19"/>
+      <c r="H13" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16"/>
@@ -983,11 +995,15 @@
       <c r="E14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="G14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="19"/>
+      <c r="H14" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16"/>
@@ -2080,7 +2096,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2103,7 +2119,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -280,7 +280,7 @@
     <numFmt numFmtId="165" formatCode="d\.m\.;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -355,6 +355,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -467,7 +473,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -552,11 +558,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -564,7 +574,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -580,11 +590,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -592,7 +602,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -629,10 +639,10 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
@@ -981,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16"/>
       <c r="B14" s="17" t="n">
         <v>45129</v>
@@ -1004,6 +1014,7 @@
       <c r="H14" s="19" t="n">
         <v>0</v>
       </c>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16"/>
@@ -1806,178 +1817,178 @@
       <c r="A59" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="22" t="s">
+      <c r="B59" s="22"/>
+      <c r="C59" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
       <c r="F59" s="2"/>
       <c r="I59" s="15"/>
       <c r="J59" s="15"/>
     </row>
     <row r="60" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="24"/>
+      <c r="C60" s="25"/>
       <c r="F60" s="2"/>
       <c r="I60" s="15"/>
       <c r="J60" s="15"/>
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="26"/>
+      <c r="C61" s="27"/>
       <c r="F61" s="15"/>
       <c r="G61" s="14"/>
-      <c r="H61" s="21"/>
+      <c r="H61" s="22"/>
       <c r="I61" s="15"/>
       <c r="J61" s="15"/>
     </row>
     <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="27"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="22"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="23"/>
       <c r="F62" s="2"/>
       <c r="I62" s="15"/>
       <c r="J62" s="15"/>
     </row>
     <row r="63" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
       <c r="I63" s="15"/>
       <c r="J63" s="15"/>
     </row>
     <row r="64" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="30"/>
+      <c r="B64" s="31"/>
       <c r="F64" s="2"/>
       <c r="I64" s="15"/>
       <c r="J64" s="15"/>
     </row>
     <row r="65" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="30"/>
+      <c r="B65" s="31"/>
       <c r="J65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="30"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="22"/>
+      <c r="B66" s="31"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="23"/>
       <c r="J66" s="15"/>
     </row>
     <row r="67" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
       <c r="J67" s="15"/>
     </row>
     <row r="68" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="30"/>
+      <c r="B68" s="31"/>
       <c r="J68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="30"/>
+      <c r="B69" s="31"/>
       <c r="J69" s="15"/>
     </row>
     <row r="70" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="30"/>
+      <c r="B70" s="31"/>
       <c r="J70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="30"/>
+      <c r="B71" s="31"/>
       <c r="J71" s="15"/>
     </row>
     <row r="72" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
       <c r="J72" s="15"/>
     </row>
     <row r="73" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B73" s="30"/>
+      <c r="B73" s="31"/>
       <c r="J73" s="15"/>
     </row>
     <row r="74" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="30"/>
-      <c r="B74" s="30"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="31"/>
       <c r="J74" s="15"/>
     </row>
     <row r="75" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="30" t="s">
+      <c r="A75" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B75" s="30"/>
+      <c r="B75" s="31"/>
       <c r="J75" s="15"/>
     </row>
     <row r="76" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
       <c r="J76" s="15"/>
     </row>
     <row r="77" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B77" s="30"/>
-      <c r="I77" s="31"/>
+      <c r="B77" s="31"/>
+      <c r="I77" s="32"/>
       <c r="J77" s="15"/>
     </row>
     <row r="78" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="30"/>
-      <c r="B78" s="30"/>
+      <c r="A78" s="31"/>
+      <c r="B78" s="31"/>
       <c r="J78" s="15"/>
     </row>
     <row r="79" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B79" s="30"/>
+      <c r="B79" s="31"/>
       <c r="J79" s="15"/>
     </row>
     <row r="80" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="30"/>
-      <c r="B80" s="30"/>
+      <c r="A80" s="31"/>
+      <c r="B80" s="31"/>
       <c r="J80" s="15"/>
     </row>
     <row r="81" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B81" s="30"/>
+      <c r="B81" s="31"/>
       <c r="J81" s="15"/>
     </row>
     <row r="82" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="31"/>
-      <c r="B82" s="31"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="32"/>
       <c r="J82" s="15"/>
     </row>
     <row r="83" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1988,27 +1999,27 @@
         <v>72</v>
       </c>
       <c r="B84" s="3"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32" t="s">
+      <c r="C84" s="33"/>
+      <c r="D84" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E84" s="32"/>
+      <c r="E84" s="33"/>
       <c r="J84" s="15"/>
     </row>
     <row r="85" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="30"/>
-      <c r="B85" s="30"/>
-      <c r="D85" s="33" t="s">
+      <c r="A85" s="31"/>
+      <c r="B85" s="31"/>
+      <c r="D85" s="34" t="s">
         <v>74</v>
       </c>
       <c r="J85" s="15"/>
     </row>
     <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="3"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="32"/>
-      <c r="I86" s="21"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="33"/>
+      <c r="I86" s="22"/>
       <c r="J86" s="15"/>
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2019,57 +2030,57 @@
       <c r="J87" s="15"/>
     </row>
     <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="32"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="21"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="22"/>
       <c r="J88" s="15"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J91" s="31"/>
-      <c r="K91" s="31"/>
-      <c r="L91" s="31"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="32"/>
+      <c r="L91" s="32"/>
     </row>
     <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I100" s="32"/>
-      <c r="J100" s="21"/>
-      <c r="K100" s="21"/>
-      <c r="L100" s="21"/>
-    </row>
-    <row r="102" s="32" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I100" s="33"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="22"/>
+    </row>
+    <row r="102" s="33" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="D102" s="2"/>
       <c r="G102" s="2"/>
-      <c r="J102" s="21"/>
-      <c r="K102" s="21"/>
-      <c r="L102" s="21"/>
-    </row>
-    <row r="104" s="32" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J102" s="22"/>
+      <c r="K102" s="22"/>
+      <c r="L102" s="22"/>
+    </row>
+    <row r="104" s="33" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="D104" s="2"/>
       <c r="G104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J105" s="22"/>
-      <c r="K105" s="22"/>
-      <c r="L105" s="22"/>
+      <c r="J105" s="23"/>
+      <c r="K105" s="23"/>
+      <c r="L105" s="23"/>
     </row>
     <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J127" s="32"/>
-      <c r="K127" s="32"/>
-      <c r="L127" s="32"/>
+      <c r="J127" s="33"/>
+      <c r="K127" s="33"/>
+      <c r="L127" s="33"/>
     </row>
     <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J129" s="32"/>
-      <c r="K129" s="32"/>
-      <c r="L129" s="32"/>
+      <c r="J129" s="33"/>
+      <c r="K129" s="33"/>
+      <c r="L129" s="33"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2093,10 +2104,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J14 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2116,10 +2127,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J14 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -280,7 +280,7 @@
     <numFmt numFmtId="165" formatCode="d\.m\.;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -355,12 +355,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -473,7 +467,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -558,15 +552,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -574,7 +564,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -590,11 +580,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -602,7 +592,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -639,10 +629,10 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
@@ -1014,7 +1004,7 @@
       <c r="H14" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="21"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16"/>
@@ -1030,11 +1020,15 @@
       <c r="E15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="G15" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="19"/>
+      <c r="H15" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16"/>
@@ -1050,11 +1044,15 @@
       <c r="E16" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="G16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="19"/>
+      <c r="H16" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16"/>
@@ -1817,178 +1815,178 @@
       <c r="A59" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="23" t="s">
+      <c r="B59" s="21"/>
+      <c r="C59" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
       <c r="F59" s="2"/>
       <c r="I59" s="15"/>
       <c r="J59" s="15"/>
     </row>
     <row r="60" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="25"/>
+      <c r="C60" s="24"/>
       <c r="F60" s="2"/>
       <c r="I60" s="15"/>
       <c r="J60" s="15"/>
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="27"/>
+      <c r="C61" s="26"/>
       <c r="F61" s="15"/>
       <c r="G61" s="14"/>
-      <c r="H61" s="22"/>
+      <c r="H61" s="21"/>
       <c r="I61" s="15"/>
       <c r="J61" s="15"/>
     </row>
     <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="28"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="23"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="22"/>
       <c r="F62" s="2"/>
       <c r="I62" s="15"/>
       <c r="J62" s="15"/>
     </row>
     <row r="63" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
       <c r="I63" s="15"/>
       <c r="J63" s="15"/>
     </row>
     <row r="64" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="31"/>
+      <c r="B64" s="30"/>
       <c r="F64" s="2"/>
       <c r="I64" s="15"/>
       <c r="J64" s="15"/>
     </row>
     <row r="65" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="31"/>
+      <c r="B65" s="30"/>
       <c r="J65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="31"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="23"/>
+      <c r="B66" s="30"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="22"/>
       <c r="J66" s="15"/>
     </row>
     <row r="67" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
       <c r="J67" s="15"/>
     </row>
     <row r="68" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="31"/>
+      <c r="B68" s="30"/>
       <c r="J68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="31"/>
+      <c r="B69" s="30"/>
       <c r="J69" s="15"/>
     </row>
     <row r="70" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="31"/>
+      <c r="B70" s="30"/>
       <c r="J70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="31"/>
+      <c r="B71" s="30"/>
       <c r="J71" s="15"/>
     </row>
     <row r="72" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="30"/>
       <c r="J72" s="15"/>
     </row>
     <row r="73" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B73" s="31"/>
+      <c r="B73" s="30"/>
       <c r="J73" s="15"/>
     </row>
     <row r="74" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="31"/>
-      <c r="B74" s="31"/>
+      <c r="A74" s="30"/>
+      <c r="B74" s="30"/>
       <c r="J74" s="15"/>
     </row>
     <row r="75" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="31" t="s">
+      <c r="A75" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B75" s="31"/>
+      <c r="B75" s="30"/>
       <c r="J75" s="15"/>
     </row>
     <row r="76" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="31"/>
-      <c r="B76" s="31"/>
+      <c r="A76" s="30"/>
+      <c r="B76" s="30"/>
       <c r="J76" s="15"/>
     </row>
     <row r="77" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="B77" s="31"/>
-      <c r="I77" s="32"/>
+      <c r="B77" s="30"/>
+      <c r="I77" s="31"/>
       <c r="J77" s="15"/>
     </row>
     <row r="78" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="30"/>
       <c r="J78" s="15"/>
     </row>
     <row r="79" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="31" t="s">
+      <c r="A79" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B79" s="31"/>
+      <c r="B79" s="30"/>
       <c r="J79" s="15"/>
     </row>
     <row r="80" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="30"/>
       <c r="J80" s="15"/>
     </row>
     <row r="81" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="31" t="s">
+      <c r="A81" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B81" s="31"/>
+      <c r="B81" s="30"/>
       <c r="J81" s="15"/>
     </row>
     <row r="82" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="32"/>
-      <c r="B82" s="32"/>
+      <c r="A82" s="31"/>
+      <c r="B82" s="31"/>
       <c r="J82" s="15"/>
     </row>
     <row r="83" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1999,27 +1997,27 @@
         <v>72</v>
       </c>
       <c r="B84" s="3"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33" t="s">
+      <c r="C84" s="32"/>
+      <c r="D84" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="E84" s="33"/>
+      <c r="E84" s="32"/>
       <c r="J84" s="15"/>
     </row>
     <row r="85" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="31"/>
-      <c r="B85" s="31"/>
-      <c r="D85" s="34" t="s">
+      <c r="A85" s="30"/>
+      <c r="B85" s="30"/>
+      <c r="D85" s="33" t="s">
         <v>74</v>
       </c>
       <c r="J85" s="15"/>
     </row>
     <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="3"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="33"/>
-      <c r="I86" s="22"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="32"/>
+      <c r="I86" s="21"/>
       <c r="J86" s="15"/>
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2030,57 +2028,57 @@
       <c r="J87" s="15"/>
     </row>
     <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="33"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="22"/>
+      <c r="A88" s="32"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="21"/>
       <c r="J88" s="15"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J91" s="32"/>
-      <c r="K91" s="32"/>
-      <c r="L91" s="32"/>
+      <c r="J91" s="31"/>
+      <c r="K91" s="31"/>
+      <c r="L91" s="31"/>
     </row>
     <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I100" s="33"/>
-      <c r="J100" s="22"/>
-      <c r="K100" s="22"/>
-      <c r="L100" s="22"/>
-    </row>
-    <row r="102" s="33" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I100" s="32"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="21"/>
+    </row>
+    <row r="102" s="32" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="D102" s="2"/>
       <c r="G102" s="2"/>
-      <c r="J102" s="22"/>
-      <c r="K102" s="22"/>
-      <c r="L102" s="22"/>
-    </row>
-    <row r="104" s="33" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+    </row>
+    <row r="104" s="32" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="D104" s="2"/>
       <c r="G104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J105" s="23"/>
-      <c r="K105" s="23"/>
-      <c r="L105" s="23"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="22"/>
+      <c r="L105" s="22"/>
     </row>
     <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J127" s="33"/>
-      <c r="K127" s="33"/>
-      <c r="L127" s="33"/>
+      <c r="J127" s="32"/>
+      <c r="K127" s="32"/>
+      <c r="L127" s="32"/>
     </row>
     <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J129" s="33"/>
-      <c r="K129" s="33"/>
-      <c r="L129" s="33"/>
+      <c r="J129" s="32"/>
+      <c r="K129" s="32"/>
+      <c r="L129" s="32"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2104,10 +2102,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2127,10 +2125,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J14 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="77">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sophia Smith</t>
   </si>
   <si>
     <t xml:space="preserve">Englanti</t>
@@ -629,7 +632,7 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -956,6 +959,12 @@
       <c r="H12" s="19" t="n">
         <v>5</v>
       </c>
+      <c r="J12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16"/>
@@ -963,13 +972,13 @@
         <v>45129</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="19" t="n">
         <v>1</v>
@@ -987,13 +996,13 @@
         <v>45129</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="19" t="n">
         <v>1</v>
@@ -1012,13 +1021,13 @@
         <v>45130</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="19" t="n">
         <v>2</v>
@@ -1036,13 +1045,13 @@
         <v>45130</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="19" t="n">
         <v>1</v>
@@ -1060,13 +1069,13 @@
         <v>45130</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="18" t="s">
@@ -1080,13 +1089,13 @@
         <v>45131</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="18" t="s">
@@ -1100,13 +1109,13 @@
         <v>45131</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="18" t="s">
@@ -1120,13 +1129,13 @@
         <v>45131</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="18" t="s">
@@ -1140,13 +1149,13 @@
         <v>45132</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="18" t="s">
@@ -1266,7 +1275,7 @@
         <v>15</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="18" t="s">
@@ -1280,7 +1289,7 @@
         <v>45134</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>15</v>
@@ -1320,13 +1329,13 @@
         <v>45135</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="18" t="s">
@@ -1340,13 +1349,13 @@
         <v>45135</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="18" t="s">
@@ -1360,13 +1369,13 @@
         <v>45135</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="18" t="s">
@@ -1380,13 +1389,13 @@
         <v>45136</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="18" t="s">
@@ -1400,13 +1409,13 @@
         <v>45136</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="18" t="s">
@@ -1420,13 +1429,13 @@
         <v>45136</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="18" t="s">
@@ -1440,13 +1449,13 @@
         <v>45137</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="18" t="s">
@@ -1460,13 +1469,13 @@
         <v>45137</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="18" t="s">
@@ -1606,7 +1615,7 @@
         <v>15</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="18" t="s">
@@ -1620,7 +1629,7 @@
         <v>45139</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>15</v>
@@ -1640,13 +1649,13 @@
         <v>45139</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="18" t="s">
@@ -1660,13 +1669,13 @@
         <v>45139</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="18" t="s">
@@ -1680,13 +1689,13 @@
         <v>45140</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="18" t="s">
@@ -1700,13 +1709,13 @@
         <v>45140</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="18" t="s">
@@ -1720,13 +1729,13 @@
         <v>45140</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="18" t="s">
@@ -1740,13 +1749,13 @@
         <v>45140</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="18" t="s">
@@ -1760,13 +1769,13 @@
         <v>45141</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="18" t="s">
@@ -1780,13 +1789,13 @@
         <v>45141</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="18" t="s">
@@ -1813,11 +1822,11 @@
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B59" s="21"/>
       <c r="C59" s="22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D59" s="21"/>
       <c r="E59" s="21"/>
@@ -1827,7 +1836,7 @@
     </row>
     <row r="60" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C60" s="24"/>
       <c r="F60" s="2"/>
@@ -1836,7 +1845,7 @@
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C61" s="26"/>
       <c r="F61" s="15"/>
@@ -1847,7 +1856,7 @@
     </row>
     <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" s="27"/>
       <c r="C62" s="22"/>
@@ -1866,7 +1875,7 @@
     </row>
     <row r="64" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B64" s="30"/>
       <c r="F64" s="2"/>
@@ -1875,14 +1884,14 @@
     </row>
     <row r="65" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B65" s="30"/>
       <c r="J65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B66" s="30"/>
       <c r="F66" s="22"/>
@@ -1897,28 +1906,28 @@
     </row>
     <row r="68" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B68" s="30"/>
       <c r="J68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B69" s="30"/>
       <c r="J69" s="15"/>
     </row>
     <row r="70" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B70" s="30"/>
       <c r="J70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B71" s="30"/>
       <c r="J71" s="15"/>
@@ -1930,7 +1939,7 @@
     </row>
     <row r="73" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B73" s="30"/>
       <c r="J73" s="15"/>
@@ -1942,7 +1951,7 @@
     </row>
     <row r="75" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B75" s="30"/>
       <c r="J75" s="15"/>
@@ -1954,7 +1963,7 @@
     </row>
     <row r="77" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B77" s="30"/>
       <c r="I77" s="31"/>
@@ -1967,7 +1976,7 @@
     </row>
     <row r="79" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B79" s="30"/>
       <c r="J79" s="15"/>
@@ -1979,7 +1988,7 @@
     </row>
     <row r="81" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B81" s="30"/>
       <c r="J81" s="15"/>
@@ -1994,12 +2003,12 @@
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="32"/>
       <c r="D84" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E84" s="32"/>
       <c r="J84" s="15"/>
@@ -2008,7 +2017,7 @@
       <c r="A85" s="30"/>
       <c r="B85" s="30"/>
       <c r="D85" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J85" s="15"/>
     </row>
@@ -2022,7 +2031,7 @@
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B87" s="3"/>
       <c r="J87" s="15"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="78">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fridolina Rolfö</t>
   </si>
   <si>
     <t xml:space="preserve">Tanska</t>
@@ -632,10 +635,10 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
@@ -989,6 +992,12 @@
       <c r="H13" s="19" t="n">
         <v>0</v>
       </c>
+      <c r="J13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16"/>
@@ -996,13 +1005,13 @@
         <v>45129</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="19" t="n">
         <v>1</v>
@@ -1021,13 +1030,13 @@
         <v>45130</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="19" t="n">
         <v>2</v>
@@ -1045,13 +1054,13 @@
         <v>45130</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="19" t="n">
         <v>1</v>
@@ -1069,13 +1078,13 @@
         <v>45130</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="18" t="s">
@@ -1089,13 +1098,13 @@
         <v>45131</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="18" t="s">
@@ -1109,13 +1118,13 @@
         <v>45131</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="18" t="s">
@@ -1129,13 +1138,13 @@
         <v>45131</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="18" t="s">
@@ -1149,13 +1158,13 @@
         <v>45132</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="18" t="s">
@@ -1275,7 +1284,7 @@
         <v>15</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="18" t="s">
@@ -1289,7 +1298,7 @@
         <v>45134</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>15</v>
@@ -1329,13 +1338,13 @@
         <v>45135</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="18" t="s">
@@ -1355,7 +1364,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="18" t="s">
@@ -1369,7 +1378,7 @@
         <v>45135</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>15</v>
@@ -1389,13 +1398,13 @@
         <v>45136</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="18" t="s">
@@ -1409,13 +1418,13 @@
         <v>45136</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="18" t="s">
@@ -1429,13 +1438,13 @@
         <v>45136</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="18" t="s">
@@ -1449,13 +1458,13 @@
         <v>45137</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="18" t="s">
@@ -1469,13 +1478,13 @@
         <v>45137</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="18" t="s">
@@ -1615,7 +1624,7 @@
         <v>15</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="18" t="s">
@@ -1629,7 +1638,7 @@
         <v>45139</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>15</v>
@@ -1649,13 +1658,13 @@
         <v>45139</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="18" t="s">
@@ -1675,7 +1684,7 @@
         <v>15</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="18" t="s">
@@ -1689,13 +1698,13 @@
         <v>45140</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="18" t="s">
@@ -1709,13 +1718,13 @@
         <v>45140</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="18" t="s">
@@ -1729,13 +1738,13 @@
         <v>45140</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="18" t="s">
@@ -1749,13 +1758,13 @@
         <v>45140</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="18" t="s">
@@ -1769,13 +1778,13 @@
         <v>45141</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="18" t="s">
@@ -1789,13 +1798,13 @@
         <v>45141</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="18" t="s">
@@ -1822,11 +1831,11 @@
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" s="21"/>
       <c r="C59" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D59" s="21"/>
       <c r="E59" s="21"/>
@@ -1836,7 +1845,7 @@
     </row>
     <row r="60" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C60" s="24"/>
       <c r="F60" s="2"/>
@@ -1845,7 +1854,7 @@
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C61" s="26"/>
       <c r="F61" s="15"/>
@@ -1856,7 +1865,7 @@
     </row>
     <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="27"/>
       <c r="C62" s="22"/>
@@ -1875,7 +1884,7 @@
     </row>
     <row r="64" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" s="30"/>
       <c r="F64" s="2"/>
@@ -1884,14 +1893,14 @@
     </row>
     <row r="65" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65" s="30"/>
       <c r="J65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" s="30"/>
       <c r="F66" s="22"/>
@@ -1906,28 +1915,28 @@
     </row>
     <row r="68" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B68" s="30"/>
       <c r="J68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B69" s="30"/>
       <c r="J69" s="15"/>
     </row>
     <row r="70" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B70" s="30"/>
       <c r="J70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B71" s="30"/>
       <c r="J71" s="15"/>
@@ -1939,7 +1948,7 @@
     </row>
     <row r="73" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B73" s="30"/>
       <c r="J73" s="15"/>
@@ -1951,7 +1960,7 @@
     </row>
     <row r="75" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B75" s="30"/>
       <c r="J75" s="15"/>
@@ -1963,7 +1972,7 @@
     </row>
     <row r="77" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B77" s="30"/>
       <c r="I77" s="31"/>
@@ -1976,7 +1985,7 @@
     </row>
     <row r="79" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B79" s="30"/>
       <c r="J79" s="15"/>
@@ -1988,7 +1997,7 @@
     </row>
     <row r="81" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B81" s="30"/>
       <c r="J81" s="15"/>
@@ -2003,12 +2012,12 @@
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="32"/>
       <c r="D84" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E84" s="32"/>
       <c r="J84" s="15"/>
@@ -2017,7 +2026,7 @@
       <c r="A85" s="30"/>
       <c r="B85" s="30"/>
       <c r="D85" s="33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J85" s="15"/>
     </row>
@@ -2031,7 +2040,7 @@
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B87" s="3"/>
       <c r="J87" s="15"/>
@@ -2114,7 +2123,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2137,7 +2146,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -160,7 +160,7 @@
     <t xml:space="preserve">Haiti</t>
   </si>
   <si>
-    <t xml:space="preserve">Fridolina Rolfö</t>
+    <t xml:space="preserve">Fridolino Rolfö</t>
   </si>
   <si>
     <t xml:space="preserve">Tanska</t>
@@ -473,7 +473,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -556,6 +556,10 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -635,10 +639,10 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
@@ -969,7 +973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="16"/>
       <c r="B13" s="17" t="n">
         <v>45129</v>
@@ -992,7 +996,7 @@
       <c r="H13" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="21" t="s">
         <v>39</v>
       </c>
       <c r="L13" s="15" t="n">
@@ -1833,178 +1837,178 @@
       <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="22" t="s">
+      <c r="B59" s="22"/>
+      <c r="C59" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
       <c r="F59" s="2"/>
       <c r="I59" s="15"/>
       <c r="J59" s="15"/>
     </row>
     <row r="60" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="24"/>
+      <c r="C60" s="25"/>
       <c r="F60" s="2"/>
       <c r="I60" s="15"/>
       <c r="J60" s="15"/>
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="26"/>
+      <c r="C61" s="27"/>
       <c r="F61" s="15"/>
       <c r="G61" s="14"/>
-      <c r="H61" s="21"/>
+      <c r="H61" s="22"/>
       <c r="I61" s="15"/>
       <c r="J61" s="15"/>
     </row>
     <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="27"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="22"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="23"/>
       <c r="F62" s="2"/>
       <c r="I62" s="15"/>
       <c r="J62" s="15"/>
     </row>
     <row r="63" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
       <c r="I63" s="15"/>
       <c r="J63" s="15"/>
     </row>
     <row r="64" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="30"/>
+      <c r="B64" s="31"/>
       <c r="F64" s="2"/>
       <c r="I64" s="15"/>
       <c r="J64" s="15"/>
     </row>
     <row r="65" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="30"/>
+      <c r="B65" s="31"/>
       <c r="J65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="30"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="22"/>
+      <c r="B66" s="31"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="23"/>
       <c r="J66" s="15"/>
     </row>
     <row r="67" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="30"/>
-      <c r="B67" s="30"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
       <c r="J67" s="15"/>
     </row>
     <row r="68" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="30"/>
+      <c r="B68" s="31"/>
       <c r="J68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="30"/>
+      <c r="B69" s="31"/>
       <c r="J69" s="15"/>
     </row>
     <row r="70" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="B70" s="30"/>
+      <c r="B70" s="31"/>
       <c r="J70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="30"/>
+      <c r="B71" s="31"/>
       <c r="J71" s="15"/>
     </row>
     <row r="72" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
       <c r="J72" s="15"/>
     </row>
     <row r="73" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="30"/>
+      <c r="B73" s="31"/>
       <c r="J73" s="15"/>
     </row>
     <row r="74" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="30"/>
-      <c r="B74" s="30"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="31"/>
       <c r="J74" s="15"/>
     </row>
     <row r="75" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="30" t="s">
+      <c r="A75" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B75" s="30"/>
+      <c r="B75" s="31"/>
       <c r="J75" s="15"/>
     </row>
     <row r="76" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="31"/>
       <c r="J76" s="15"/>
     </row>
     <row r="77" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B77" s="30"/>
-      <c r="I77" s="31"/>
+      <c r="B77" s="31"/>
+      <c r="I77" s="32"/>
       <c r="J77" s="15"/>
     </row>
     <row r="78" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="30"/>
-      <c r="B78" s="30"/>
+      <c r="A78" s="31"/>
+      <c r="B78" s="31"/>
       <c r="J78" s="15"/>
     </row>
     <row r="79" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="B79" s="30"/>
+      <c r="B79" s="31"/>
       <c r="J79" s="15"/>
     </row>
     <row r="80" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="30"/>
-      <c r="B80" s="30"/>
+      <c r="A80" s="31"/>
+      <c r="B80" s="31"/>
       <c r="J80" s="15"/>
     </row>
     <row r="81" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="B81" s="30"/>
+      <c r="B81" s="31"/>
       <c r="J81" s="15"/>
     </row>
     <row r="82" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="31"/>
-      <c r="B82" s="31"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="32"/>
       <c r="J82" s="15"/>
     </row>
     <row r="83" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2015,27 +2019,27 @@
         <v>74</v>
       </c>
       <c r="B84" s="3"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32" t="s">
+      <c r="C84" s="33"/>
+      <c r="D84" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E84" s="32"/>
+      <c r="E84" s="33"/>
       <c r="J84" s="15"/>
     </row>
     <row r="85" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="30"/>
-      <c r="B85" s="30"/>
-      <c r="D85" s="33" t="s">
+      <c r="A85" s="31"/>
+      <c r="B85" s="31"/>
+      <c r="D85" s="34" t="s">
         <v>76</v>
       </c>
       <c r="J85" s="15"/>
     </row>
     <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="3"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="32"/>
-      <c r="I86" s="21"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="33"/>
+      <c r="I86" s="22"/>
       <c r="J86" s="15"/>
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2046,57 +2050,57 @@
       <c r="J87" s="15"/>
     </row>
     <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="32"/>
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="21"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="33"/>
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="22"/>
       <c r="J88" s="15"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J91" s="31"/>
-      <c r="K91" s="31"/>
-      <c r="L91" s="31"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="32"/>
+      <c r="L91" s="32"/>
     </row>
     <row r="100" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I100" s="32"/>
-      <c r="J100" s="21"/>
-      <c r="K100" s="21"/>
-      <c r="L100" s="21"/>
-    </row>
-    <row r="102" s="32" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I100" s="33"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="22"/>
+    </row>
+    <row r="102" s="33" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="D102" s="2"/>
       <c r="G102" s="2"/>
-      <c r="J102" s="21"/>
-      <c r="K102" s="21"/>
-      <c r="L102" s="21"/>
-    </row>
-    <row r="104" s="32" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J102" s="22"/>
+      <c r="K102" s="22"/>
+      <c r="L102" s="22"/>
+    </row>
+    <row r="104" s="33" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="D104" s="2"/>
       <c r="G104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J105" s="22"/>
-      <c r="K105" s="22"/>
-      <c r="L105" s="22"/>
+      <c r="J105" s="23"/>
+      <c r="K105" s="23"/>
+      <c r="L105" s="23"/>
     </row>
     <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J127" s="32"/>
-      <c r="K127" s="32"/>
-      <c r="L127" s="32"/>
+      <c r="J127" s="33"/>
+      <c r="K127" s="33"/>
+      <c r="L127" s="33"/>
     </row>
     <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J129" s="32"/>
-      <c r="K129" s="32"/>
-      <c r="L129" s="32"/>
+      <c r="J129" s="33"/>
+      <c r="K129" s="33"/>
+      <c r="L129" s="33"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2123,7 +2127,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2146,7 +2150,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -639,10 +639,10 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
@@ -1090,11 +1090,15 @@
       <c r="E17" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="G17" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16"/>
@@ -2127,7 +2131,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2150,7 +2154,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="80">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -169,10 +169,16 @@
     <t xml:space="preserve">Kiina</t>
   </si>
   <si>
+    <t xml:space="preserve">Alex Popp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ruotsi</t>
   </si>
   <si>
     <t xml:space="preserve">Etelä-Afrikka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristiana Girelli</t>
   </si>
   <si>
     <t xml:space="preserve">Hollanti</t>
@@ -639,10 +645,10 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
@@ -1026,7 +1032,12 @@
       <c r="H14" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="20"/>
+      <c r="J14" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16"/>
@@ -1034,13 +1045,13 @@
         <v>45130</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="19" t="n">
         <v>2</v>
@@ -1049,6 +1060,12 @@
         <v>15</v>
       </c>
       <c r="H15" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1058,13 +1075,13 @@
         <v>45130</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F16" s="19" t="n">
         <v>1</v>
@@ -1082,13 +1099,13 @@
         <v>45130</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F17" s="19" t="n">
         <v>0</v>
@@ -1106,19 +1123,23 @@
         <v>45131</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="19"/>
+        <v>51</v>
+      </c>
+      <c r="F18" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="G18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16"/>
@@ -1126,19 +1147,23 @@
         <v>45131</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="F19" s="19" t="n">
+        <v>6</v>
+      </c>
       <c r="G19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="19"/>
+      <c r="H19" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16"/>
@@ -1146,13 +1171,13 @@
         <v>45131</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="18" t="s">
@@ -1166,13 +1191,13 @@
         <v>45132</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="18" t="s">
@@ -1292,7 +1317,7 @@
         <v>15</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="18" t="s">
@@ -1306,7 +1331,7 @@
         <v>45134</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>15</v>
@@ -1346,13 +1371,13 @@
         <v>45135</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="18" t="s">
@@ -1406,13 +1431,13 @@
         <v>45136</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="18" t="s">
@@ -1426,13 +1451,13 @@
         <v>45136</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="18" t="s">
@@ -1446,13 +1471,13 @@
         <v>45136</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="18" t="s">
@@ -1466,13 +1491,13 @@
         <v>45137</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="18" t="s">
@@ -1486,13 +1511,13 @@
         <v>45137</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="18" t="s">
@@ -1632,7 +1657,7 @@
         <v>15</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="18" t="s">
@@ -1646,7 +1671,7 @@
         <v>45139</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>15</v>
@@ -1672,7 +1697,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="18" t="s">
@@ -1706,13 +1731,13 @@
         <v>45140</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="18" t="s">
@@ -1726,13 +1751,13 @@
         <v>45140</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="18" t="s">
@@ -1746,13 +1771,13 @@
         <v>45140</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="18" t="s">
@@ -1766,13 +1791,13 @@
         <v>45140</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="18" t="s">
@@ -1786,13 +1811,13 @@
         <v>45141</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="18" t="s">
@@ -1806,13 +1831,13 @@
         <v>45141</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="18" t="s">
@@ -1839,11 +1864,11 @@
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
@@ -1853,7 +1878,7 @@
     </row>
     <row r="60" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C60" s="25"/>
       <c r="F60" s="2"/>
@@ -1862,7 +1887,7 @@
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C61" s="27"/>
       <c r="F61" s="15"/>
@@ -1873,7 +1898,7 @@
     </row>
     <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62" s="28"/>
       <c r="C62" s="23"/>
@@ -1892,7 +1917,7 @@
     </row>
     <row r="64" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B64" s="31"/>
       <c r="F64" s="2"/>
@@ -1901,14 +1926,14 @@
     </row>
     <row r="65" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B65" s="31"/>
       <c r="J65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B66" s="31"/>
       <c r="F66" s="23"/>
@@ -1923,28 +1948,28 @@
     </row>
     <row r="68" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B68" s="31"/>
       <c r="J68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B69" s="31"/>
       <c r="J69" s="15"/>
     </row>
     <row r="70" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B70" s="31"/>
       <c r="J70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B71" s="31"/>
       <c r="J71" s="15"/>
@@ -1956,7 +1981,7 @@
     </row>
     <row r="73" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B73" s="31"/>
       <c r="J73" s="15"/>
@@ -1968,7 +1993,7 @@
     </row>
     <row r="75" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="31" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B75" s="31"/>
       <c r="J75" s="15"/>
@@ -1980,7 +2005,7 @@
     </row>
     <row r="77" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B77" s="31"/>
       <c r="I77" s="32"/>
@@ -1993,7 +2018,7 @@
     </row>
     <row r="79" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B79" s="31"/>
       <c r="J79" s="15"/>
@@ -2005,7 +2030,7 @@
     </row>
     <row r="81" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B81" s="31"/>
       <c r="J81" s="15"/>
@@ -2020,12 +2045,12 @@
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="33"/>
       <c r="D84" s="33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E84" s="33"/>
       <c r="J84" s="15"/>
@@ -2034,7 +2059,7 @@
       <c r="A85" s="31"/>
       <c r="B85" s="31"/>
       <c r="D85" s="34" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J85" s="15"/>
     </row>
@@ -2048,7 +2073,7 @@
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B87" s="3"/>
       <c r="J87" s="15"/>
@@ -2131,7 +2156,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2154,7 +2179,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -645,7 +645,7 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1179,11 +1179,15 @@
       <c r="E20" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="19"/>
+      <c r="F20" s="19" t="n">
+        <v>4</v>
+      </c>
       <c r="G20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="19"/>
+      <c r="H20" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="81">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t xml:space="preserve">Portugali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aa</t>
   </si>
   <si>
     <t xml:space="preserve">Ranska</t>
@@ -644,11 +647,11 @@
   </sheetPr>
   <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
@@ -1092,6 +1095,9 @@
       <c r="H16" s="19" t="n">
         <v>0</v>
       </c>
+      <c r="J16" s="15" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="17" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16"/>
@@ -1099,13 +1105,13 @@
         <v>45130</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" s="19" t="n">
         <v>0</v>
@@ -1123,13 +1129,13 @@
         <v>45131</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F18" s="19" t="n">
         <v>1</v>
@@ -1147,13 +1153,13 @@
         <v>45131</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19" s="19" t="n">
         <v>6</v>
@@ -1171,13 +1177,13 @@
         <v>45131</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F20" s="19" t="n">
         <v>4</v>
@@ -1195,13 +1201,13 @@
         <v>45132</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F21" s="19"/>
       <c r="G21" s="18" t="s">
@@ -1375,7 +1381,7 @@
         <v>45135</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>15</v>
@@ -1441,7 +1447,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="18" t="s">
@@ -1455,13 +1461,13 @@
         <v>45136</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="18" t="s">
@@ -1475,13 +1481,13 @@
         <v>45136</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F35" s="19"/>
       <c r="G35" s="18" t="s">
@@ -1495,13 +1501,13 @@
         <v>45137</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="18" t="s">
@@ -1515,13 +1521,13 @@
         <v>45137</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="18" t="s">
@@ -1701,7 +1707,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="18" t="s">
@@ -1735,7 +1741,7 @@
         <v>45140</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>15</v>
@@ -1761,7 +1767,7 @@
         <v>15</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="18" t="s">
@@ -1775,13 +1781,13 @@
         <v>45140</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="18" t="s">
@@ -1795,13 +1801,13 @@
         <v>45140</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="18" t="s">
@@ -1815,13 +1821,13 @@
         <v>45141</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="18" t="s">
@@ -1835,13 +1841,13 @@
         <v>45141</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="18" t="s">
@@ -1868,11 +1874,11 @@
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
@@ -1882,7 +1888,7 @@
     </row>
     <row r="60" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" s="25"/>
       <c r="F60" s="2"/>
@@ -1891,7 +1897,7 @@
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61" s="27"/>
       <c r="F61" s="15"/>
@@ -1902,7 +1908,7 @@
     </row>
     <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B62" s="28"/>
       <c r="C62" s="23"/>
@@ -1921,7 +1927,7 @@
     </row>
     <row r="64" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64" s="31"/>
       <c r="F64" s="2"/>
@@ -1930,14 +1936,14 @@
     </row>
     <row r="65" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65" s="31"/>
       <c r="J65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66" s="31"/>
       <c r="F66" s="23"/>
@@ -1952,28 +1958,28 @@
     </row>
     <row r="68" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="31"/>
       <c r="J68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" s="31"/>
       <c r="J69" s="15"/>
     </row>
     <row r="70" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="31"/>
       <c r="J70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="31"/>
       <c r="J71" s="15"/>
@@ -1985,7 +1991,7 @@
     </row>
     <row r="73" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="31"/>
       <c r="J73" s="15"/>
@@ -1997,7 +2003,7 @@
     </row>
     <row r="75" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75" s="31"/>
       <c r="J75" s="15"/>
@@ -2009,7 +2015,7 @@
     </row>
     <row r="77" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B77" s="31"/>
       <c r="I77" s="32"/>
@@ -2022,7 +2028,7 @@
     </row>
     <row r="79" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B79" s="31"/>
       <c r="J79" s="15"/>
@@ -2034,7 +2040,7 @@
     </row>
     <row r="81" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B81" s="31"/>
       <c r="J81" s="15"/>
@@ -2049,12 +2055,12 @@
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="33"/>
       <c r="D84" s="33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E84" s="33"/>
       <c r="J84" s="15"/>
@@ -2063,7 +2069,7 @@
       <c r="A85" s="31"/>
       <c r="B85" s="31"/>
       <c r="D85" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J85" s="15"/>
     </row>
@@ -2077,7 +2083,7 @@
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B87" s="3"/>
       <c r="J87" s="15"/>
@@ -2160,7 +2166,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2183,7 +2189,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -648,10 +648,10 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
@@ -1209,11 +1209,15 @@
       <c r="E21" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="19"/>
+      <c r="F21" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="G21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="19"/>
+      <c r="H21" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16"/>
@@ -1229,11 +1233,15 @@
       <c r="E22" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="19"/>
+      <c r="F22" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="G22" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="19"/>
+      <c r="H22" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16"/>
@@ -2166,7 +2174,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2189,7 +2197,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -648,10 +648,10 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
@@ -1257,11 +1257,15 @@
       <c r="E23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="19"/>
+      <c r="F23" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="G23" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16"/>
@@ -2174,7 +2178,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2197,7 +2201,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="82">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -187,13 +187,16 @@
     <t xml:space="preserve">Portugali</t>
   </si>
   <si>
-    <t xml:space="preserve">aa</t>
+    <t xml:space="preserve">Jennifer Hermoso</t>
   </si>
   <si>
     <t xml:space="preserve">Ranska</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teresa Abelleira</t>
   </si>
   <si>
     <t xml:space="preserve">Italia</t>
@@ -648,10 +651,10 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
@@ -1098,6 +1101,9 @@
       <c r="J16" s="15" t="s">
         <v>48</v>
       </c>
+      <c r="L16" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="16"/>
@@ -1122,6 +1128,12 @@
       <c r="H17" s="19" t="n">
         <v>0</v>
       </c>
+      <c r="J17" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="16"/>
@@ -1129,13 +1141,13 @@
         <v>45131</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F18" s="19" t="n">
         <v>1</v>
@@ -1153,13 +1165,13 @@
         <v>45131</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F19" s="19" t="n">
         <v>6</v>
@@ -1177,13 +1189,13 @@
         <v>45131</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F20" s="19" t="n">
         <v>4</v>
@@ -1201,13 +1213,13 @@
         <v>45132</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F21" s="19" t="n">
         <v>2</v>
@@ -1281,11 +1293,15 @@
       <c r="E24" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="G24" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16"/>
@@ -1393,7 +1409,7 @@
         <v>45135</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>15</v>
@@ -1459,7 +1475,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="18" t="s">
@@ -1479,7 +1495,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="18" t="s">
@@ -1493,7 +1509,7 @@
         <v>45136</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>15</v>
@@ -1513,13 +1529,13 @@
         <v>45137</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="18" t="s">
@@ -1533,13 +1549,13 @@
         <v>45137</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="18" t="s">
@@ -1719,7 +1735,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="18" t="s">
@@ -1753,7 +1769,7 @@
         <v>45140</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>15</v>
@@ -1779,7 +1795,7 @@
         <v>15</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="18" t="s">
@@ -1793,7 +1809,7 @@
         <v>45140</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>15</v>
@@ -1819,7 +1835,7 @@
         <v>15</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="18" t="s">
@@ -1833,13 +1849,13 @@
         <v>45141</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="18" t="s">
@@ -1853,13 +1869,13 @@
         <v>45141</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="18" t="s">
@@ -1886,11 +1902,11 @@
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
@@ -1900,7 +1916,7 @@
     </row>
     <row r="60" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60" s="25"/>
       <c r="F60" s="2"/>
@@ -1909,7 +1925,7 @@
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" s="27"/>
       <c r="F61" s="15"/>
@@ -1920,7 +1936,7 @@
     </row>
     <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" s="28"/>
       <c r="C62" s="23"/>
@@ -1939,7 +1955,7 @@
     </row>
     <row r="64" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B64" s="31"/>
       <c r="F64" s="2"/>
@@ -1948,14 +1964,14 @@
     </row>
     <row r="65" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B65" s="31"/>
       <c r="J65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B66" s="31"/>
       <c r="F66" s="23"/>
@@ -1970,28 +1986,28 @@
     </row>
     <row r="68" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68" s="31"/>
       <c r="J68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69" s="31"/>
       <c r="J69" s="15"/>
     </row>
     <row r="70" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70" s="31"/>
       <c r="J70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71" s="31"/>
       <c r="J71" s="15"/>
@@ -2003,7 +2019,7 @@
     </row>
     <row r="73" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="31"/>
       <c r="J73" s="15"/>
@@ -2015,7 +2031,7 @@
     </row>
     <row r="75" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="31"/>
       <c r="J75" s="15"/>
@@ -2027,7 +2043,7 @@
     </row>
     <row r="77" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B77" s="31"/>
       <c r="I77" s="32"/>
@@ -2040,7 +2056,7 @@
     </row>
     <row r="79" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B79" s="31"/>
       <c r="J79" s="15"/>
@@ -2052,7 +2068,7 @@
     </row>
     <row r="81" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B81" s="31"/>
       <c r="J81" s="15"/>
@@ -2067,12 +2083,12 @@
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="33"/>
       <c r="D84" s="33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E84" s="33"/>
       <c r="J84" s="15"/>
@@ -2081,7 +2097,7 @@
       <c r="A85" s="31"/>
       <c r="B85" s="31"/>
       <c r="D85" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J85" s="15"/>
     </row>
@@ -2095,7 +2111,7 @@
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B87" s="3"/>
       <c r="J87" s="15"/>
@@ -2178,7 +2194,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2201,7 +2217,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="83">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t xml:space="preserve">Argentiina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alba Redondo</t>
   </si>
   <si>
     <t xml:space="preserve">Saksa</t>
@@ -650,11 +653,11 @@
   </sheetPr>
   <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
@@ -1102,7 +1105,7 @@
         <v>48</v>
       </c>
       <c r="L16" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1158,6 +1161,12 @@
       <c r="H18" s="19" t="n">
         <v>0</v>
       </c>
+      <c r="J18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="15" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16"/>
@@ -1165,13 +1174,13 @@
         <v>45131</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F19" s="19" t="n">
         <v>6</v>
@@ -1189,13 +1198,13 @@
         <v>45131</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F20" s="19" t="n">
         <v>4</v>
@@ -1213,13 +1222,13 @@
         <v>45132</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="19" t="n">
         <v>2</v>
@@ -1317,11 +1326,15 @@
       <c r="E25" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>5</v>
+      </c>
       <c r="G25" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16"/>
@@ -1495,7 +1508,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="18" t="s">
@@ -1509,7 +1522,7 @@
         <v>45136</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>15</v>
@@ -1529,13 +1542,13 @@
         <v>45137</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="18" t="s">
@@ -1549,13 +1562,13 @@
         <v>45137</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="18" t="s">
@@ -1735,7 +1748,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="18" t="s">
@@ -1809,7 +1822,7 @@
         <v>45140</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>15</v>
@@ -1835,7 +1848,7 @@
         <v>15</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="18" t="s">
@@ -1849,13 +1862,13 @@
         <v>45141</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="18" t="s">
@@ -1869,13 +1882,13 @@
         <v>45141</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="18" t="s">
@@ -1902,11 +1915,11 @@
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
@@ -1916,7 +1929,7 @@
     </row>
     <row r="60" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C60" s="25"/>
       <c r="F60" s="2"/>
@@ -1925,7 +1938,7 @@
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C61" s="27"/>
       <c r="F61" s="15"/>
@@ -1936,7 +1949,7 @@
     </row>
     <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B62" s="28"/>
       <c r="C62" s="23"/>
@@ -1955,7 +1968,7 @@
     </row>
     <row r="64" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" s="31"/>
       <c r="F64" s="2"/>
@@ -1964,14 +1977,14 @@
     </row>
     <row r="65" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" s="31"/>
       <c r="J65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66" s="31"/>
       <c r="F66" s="23"/>
@@ -1986,28 +1999,28 @@
     </row>
     <row r="68" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B68" s="31"/>
       <c r="J68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B69" s="31"/>
       <c r="J69" s="15"/>
     </row>
     <row r="70" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B70" s="31"/>
       <c r="J70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B71" s="31"/>
       <c r="J71" s="15"/>
@@ -2019,7 +2032,7 @@
     </row>
     <row r="73" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73" s="31"/>
       <c r="J73" s="15"/>
@@ -2031,7 +2044,7 @@
     </row>
     <row r="75" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" s="31"/>
       <c r="J75" s="15"/>
@@ -2043,7 +2056,7 @@
     </row>
     <row r="77" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="31"/>
       <c r="I77" s="32"/>
@@ -2056,7 +2069,7 @@
     </row>
     <row r="79" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B79" s="31"/>
       <c r="J79" s="15"/>
@@ -2068,7 +2081,7 @@
     </row>
     <row r="81" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B81" s="31"/>
       <c r="J81" s="15"/>
@@ -2083,12 +2096,12 @@
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="33"/>
       <c r="D84" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E84" s="33"/>
       <c r="J84" s="15"/>
@@ -2097,7 +2110,7 @@
       <c r="A85" s="31"/>
       <c r="B85" s="31"/>
       <c r="D85" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J85" s="15"/>
     </row>
@@ -2111,7 +2124,7 @@
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B87" s="3"/>
       <c r="J87" s="15"/>
@@ -2194,7 +2207,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2217,7 +2230,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -654,10 +654,10 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
@@ -1350,11 +1350,15 @@
       <c r="E26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="G26" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16"/>
@@ -2207,7 +2211,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2230,7 +2234,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -654,10 +654,10 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
@@ -1374,11 +1374,15 @@
       <c r="E27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="19"/>
+      <c r="F27" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="G27" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="19"/>
+      <c r="H27" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16"/>
@@ -1394,11 +1398,15 @@
       <c r="E28" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="19"/>
+      <c r="F28" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="G28" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="19"/>
+      <c r="H28" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16"/>
@@ -1414,11 +1422,15 @@
       <c r="E29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="19"/>
+      <c r="F29" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="G29" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="19"/>
+      <c r="H29" s="19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16"/>
@@ -2211,7 +2223,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2234,7 +2246,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="84">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t xml:space="preserve">Marokko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lauren James</t>
   </si>
   <si>
     <t xml:space="preserve">Brasilia</t>
@@ -654,10 +657,10 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
@@ -1191,6 +1194,12 @@
       <c r="H19" s="19" t="n">
         <v>0</v>
       </c>
+      <c r="J19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="16"/>
@@ -1198,13 +1207,13 @@
         <v>45131</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F20" s="19" t="n">
         <v>4</v>
@@ -1222,13 +1231,13 @@
         <v>45132</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F21" s="19" t="n">
         <v>2</v>
@@ -1446,11 +1455,15 @@
       <c r="E30" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="19"/>
+      <c r="F30" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="G30" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="19"/>
+      <c r="H30" s="19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16"/>
@@ -1466,11 +1479,15 @@
       <c r="E31" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="19"/>
+      <c r="F31" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="G31" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="19"/>
+      <c r="H31" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="16"/>
@@ -1524,7 +1541,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F34" s="19"/>
       <c r="G34" s="18" t="s">
@@ -1538,7 +1555,7 @@
         <v>45136</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>15</v>
@@ -1558,7 +1575,7 @@
         <v>45137</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>15</v>
@@ -1584,7 +1601,7 @@
         <v>15</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="18" t="s">
@@ -1764,7 +1781,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="18" t="s">
@@ -1838,7 +1855,7 @@
         <v>45140</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>15</v>
@@ -1864,7 +1881,7 @@
         <v>15</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="18" t="s">
@@ -1884,7 +1901,7 @@
         <v>15</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="18" t="s">
@@ -1898,7 +1915,7 @@
         <v>45141</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>15</v>
@@ -1931,11 +1948,11 @@
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
@@ -1945,7 +1962,7 @@
     </row>
     <row r="60" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C60" s="25"/>
       <c r="F60" s="2"/>
@@ -1954,7 +1971,7 @@
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C61" s="27"/>
       <c r="F61" s="15"/>
@@ -1965,7 +1982,7 @@
     </row>
     <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" s="28"/>
       <c r="C62" s="23"/>
@@ -1984,7 +2001,7 @@
     </row>
     <row r="64" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B64" s="31"/>
       <c r="F64" s="2"/>
@@ -1993,14 +2010,14 @@
     </row>
     <row r="65" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B65" s="31"/>
       <c r="J65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66" s="31"/>
       <c r="F66" s="23"/>
@@ -2015,28 +2032,28 @@
     </row>
     <row r="68" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" s="31"/>
       <c r="J68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" s="31"/>
       <c r="J69" s="15"/>
     </row>
     <row r="70" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" s="31"/>
       <c r="J70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" s="31"/>
       <c r="J71" s="15"/>
@@ -2048,7 +2065,7 @@
     </row>
     <row r="73" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B73" s="31"/>
       <c r="J73" s="15"/>
@@ -2060,7 +2077,7 @@
     </row>
     <row r="75" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75" s="31"/>
       <c r="J75" s="15"/>
@@ -2072,7 +2089,7 @@
     </row>
     <row r="77" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" s="31"/>
       <c r="I77" s="32"/>
@@ -2085,7 +2102,7 @@
     </row>
     <row r="79" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="31"/>
       <c r="J79" s="15"/>
@@ -2097,7 +2114,7 @@
     </row>
     <row r="81" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" s="31"/>
       <c r="J81" s="15"/>
@@ -2112,12 +2129,12 @@
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="33"/>
       <c r="D84" s="33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E84" s="33"/>
       <c r="J84" s="15"/>
@@ -2126,7 +2143,7 @@
       <c r="A85" s="31"/>
       <c r="B85" s="31"/>
       <c r="D85" s="34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J85" s="15"/>
     </row>
@@ -2140,7 +2157,7 @@
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B87" s="3"/>
       <c r="J87" s="15"/>
@@ -2223,7 +2240,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2246,7 +2263,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="87">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -223,10 +223,19 @@
     <t xml:space="preserve">Panama</t>
   </si>
   <si>
+    <t xml:space="preserve">Debinha</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kolumbia</t>
   </si>
   <si>
     <t xml:space="preserve">Etelä-Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eugenia Le Sommer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stina Blackstenius</t>
   </si>
   <si>
     <t xml:space="preserve">Eglanti</t>
@@ -656,11 +665,11 @@
   </sheetPr>
   <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B17" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
@@ -1018,7 +1027,7 @@
         <v>39</v>
       </c>
       <c r="L13" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1224,6 +1233,12 @@
       <c r="H20" s="19" t="n">
         <v>0</v>
       </c>
+      <c r="J20" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16"/>
@@ -1231,13 +1246,13 @@
         <v>45132</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="19" t="n">
         <v>2</v>
@@ -1247,6 +1262,12 @@
       </c>
       <c r="H21" s="19" t="n">
         <v>0</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" s="15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1272,6 +1293,12 @@
       <c r="H22" s="19" t="n">
         <v>1</v>
       </c>
+      <c r="J22" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L22" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16"/>
@@ -1503,11 +1530,15 @@
       <c r="E32" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="19"/>
+      <c r="F32" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="G32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="19"/>
+      <c r="H32" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" s="15" customFormat="true" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="16"/>
@@ -1523,11 +1554,15 @@
       <c r="E33" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="19"/>
+      <c r="F33" s="19" t="n">
+        <v>5</v>
+      </c>
       <c r="G33" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="19"/>
+      <c r="H33" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" s="15" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="16"/>
@@ -1575,7 +1610,7 @@
         <v>45137</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>15</v>
@@ -1601,7 +1636,7 @@
         <v>15</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="18" t="s">
@@ -1781,7 +1816,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="18" t="s">
@@ -1901,7 +1936,7 @@
         <v>15</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="18" t="s">
@@ -1915,7 +1950,7 @@
         <v>45141</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>15</v>
@@ -1948,11 +1983,11 @@
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
@@ -1962,7 +1997,7 @@
     </row>
     <row r="60" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C60" s="25"/>
       <c r="F60" s="2"/>
@@ -1971,7 +2006,7 @@
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C61" s="27"/>
       <c r="F61" s="15"/>
@@ -1982,7 +2017,7 @@
     </row>
     <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B62" s="28"/>
       <c r="C62" s="23"/>
@@ -2001,7 +2036,7 @@
     </row>
     <row r="64" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64" s="31"/>
       <c r="F64" s="2"/>
@@ -2010,14 +2045,14 @@
     </row>
     <row r="65" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="31" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65" s="31"/>
       <c r="J65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="31" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66" s="31"/>
       <c r="F66" s="23"/>
@@ -2032,28 +2067,28 @@
     </row>
     <row r="68" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68" s="31"/>
       <c r="J68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69" s="31"/>
       <c r="J69" s="15"/>
     </row>
     <row r="70" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="31" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70" s="31"/>
       <c r="J70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="31" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71" s="31"/>
       <c r="J71" s="15"/>
@@ -2065,7 +2100,7 @@
     </row>
     <row r="73" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="31" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73" s="31"/>
       <c r="J73" s="15"/>
@@ -2077,7 +2112,7 @@
     </row>
     <row r="75" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="31" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75" s="31"/>
       <c r="J75" s="15"/>
@@ -2089,7 +2124,7 @@
     </row>
     <row r="77" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="31" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B77" s="31"/>
       <c r="I77" s="32"/>
@@ -2102,7 +2137,7 @@
     </row>
     <row r="79" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="31" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B79" s="31"/>
       <c r="J79" s="15"/>
@@ -2114,7 +2149,7 @@
     </row>
     <row r="81" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B81" s="31"/>
       <c r="J81" s="15"/>
@@ -2129,12 +2164,12 @@
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="33"/>
       <c r="D84" s="33" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E84" s="33"/>
       <c r="J84" s="15"/>
@@ -2143,7 +2178,7 @@
       <c r="A85" s="31"/>
       <c r="B85" s="31"/>
       <c r="D85" s="34" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J85" s="15"/>
     </row>
@@ -2157,7 +2192,7 @@
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B87" s="3"/>
       <c r="J87" s="15"/>
@@ -2240,7 +2275,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2263,7 +2298,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="87">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -232,7 +232,7 @@
     <t xml:space="preserve">Etelä-Korea</t>
   </si>
   <si>
-    <t xml:space="preserve">Eugenia Le Sommer</t>
+    <t xml:space="preserve">Eugenie Le Sommer</t>
   </si>
   <si>
     <t xml:space="preserve">Stina Blackstenius</t>
@@ -666,7 +666,7 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B17" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16"/>
       <c r="B25" s="17" t="n">
         <v>45133</v>
@@ -1359,9 +1359,7 @@
       <c r="D25" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>34</v>
-      </c>
+      <c r="E25" s="0"/>
       <c r="F25" s="19" t="n">
         <v>5</v>
       </c>
@@ -1372,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16"/>
       <c r="B26" s="17" t="n">
         <v>45133</v>
@@ -1384,7 +1382,7 @@
         <v>15</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F26" s="19" t="n">
         <v>2</v>
@@ -1396,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16"/>
       <c r="B27" s="17" t="n">
         <v>45134</v>
@@ -1408,7 +1406,7 @@
         <v>15</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F27" s="19" t="n">
         <v>1</v>
@@ -2272,7 +2270,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E26:E27 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2295,7 +2293,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E26:E27 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -665,8 +665,8 @@
   </sheetPr>
   <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B17" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26:E27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B26" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H35" activeCellId="0" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1576,11 +1576,15 @@
       <c r="E34" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="19"/>
+      <c r="F34" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="G34" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="19"/>
+      <c r="H34" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="16"/>
@@ -2270,7 +2274,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E26:E27 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2293,7 +2297,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E26:E27 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="89">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t xml:space="preserve">Stina Blackstenius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guro Reitan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbra Banda</t>
   </si>
   <si>
     <t xml:space="preserve">Eglanti</t>
@@ -665,11 +671,11 @@
   </sheetPr>
   <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B26" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H35" activeCellId="0" sqref="H35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
@@ -1057,7 +1063,7 @@
         <v>42</v>
       </c>
       <c r="L14" s="15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1323,6 +1329,12 @@
       <c r="H23" s="19" t="n">
         <v>0</v>
       </c>
+      <c r="J23" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16"/>
@@ -1347,6 +1359,12 @@
       <c r="H24" s="19" t="n">
         <v>0</v>
       </c>
+      <c r="J24" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16"/>
@@ -1600,11 +1618,15 @@
       <c r="E35" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="19"/>
+      <c r="F35" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="G35" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="19"/>
+      <c r="H35" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16"/>
@@ -1620,11 +1642,15 @@
       <c r="E36" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="19"/>
+      <c r="F36" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="G36" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="19"/>
+      <c r="H36" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16"/>
@@ -1640,11 +1666,15 @@
       <c r="E37" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="19"/>
+      <c r="F37" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="G37" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="19"/>
+      <c r="H37" s="19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="16"/>
@@ -1660,11 +1690,15 @@
       <c r="E38" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F38" s="19"/>
+      <c r="F38" s="19" t="n">
+        <v>6</v>
+      </c>
       <c r="G38" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="19"/>
+      <c r="H38" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="16"/>
@@ -1680,11 +1714,15 @@
       <c r="E39" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="19"/>
+      <c r="F39" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="G39" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="19"/>
+      <c r="H39" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="16"/>
@@ -1700,11 +1738,15 @@
       <c r="E40" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="19"/>
+      <c r="F40" s="19" t="n">
+        <v>4</v>
+      </c>
       <c r="G40" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="19"/>
+      <c r="H40" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="16"/>
@@ -1720,11 +1762,15 @@
       <c r="E41" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F41" s="19"/>
+      <c r="F41" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="G41" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="19"/>
+      <c r="H41" s="19" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="16"/>
@@ -1740,11 +1786,15 @@
       <c r="E42" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="19"/>
+      <c r="F42" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="G42" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="19"/>
+      <c r="H42" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="16"/>
@@ -1760,11 +1810,15 @@
       <c r="E43" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="19"/>
+      <c r="F43" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="G43" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H43" s="19"/>
+      <c r="H43" s="19" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16"/>
@@ -1818,7 +1872,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="18" t="s">
@@ -1985,11 +2039,11 @@
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
@@ -1999,7 +2053,7 @@
     </row>
     <row r="60" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C60" s="25"/>
       <c r="F60" s="2"/>
@@ -2008,7 +2062,7 @@
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C61" s="27"/>
       <c r="F61" s="15"/>
@@ -2019,7 +2073,7 @@
     </row>
     <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B62" s="28"/>
       <c r="C62" s="23"/>
@@ -2038,7 +2092,7 @@
     </row>
     <row r="64" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="31" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B64" s="31"/>
       <c r="F64" s="2"/>
@@ -2047,14 +2101,14 @@
     </row>
     <row r="65" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B65" s="31"/>
       <c r="J65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B66" s="31"/>
       <c r="F66" s="23"/>
@@ -2069,28 +2123,28 @@
     </row>
     <row r="68" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B68" s="31"/>
       <c r="J68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B69" s="31"/>
       <c r="J69" s="15"/>
     </row>
     <row r="70" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="31" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B70" s="31"/>
       <c r="J70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B71" s="31"/>
       <c r="J71" s="15"/>
@@ -2102,7 +2156,7 @@
     </row>
     <row r="73" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73" s="31"/>
       <c r="J73" s="15"/>
@@ -2114,7 +2168,7 @@
     </row>
     <row r="75" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75" s="31"/>
       <c r="J75" s="15"/>
@@ -2126,7 +2180,7 @@
     </row>
     <row r="77" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77" s="31"/>
       <c r="I77" s="32"/>
@@ -2139,7 +2193,7 @@
     </row>
     <row r="79" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79" s="31"/>
       <c r="J79" s="15"/>
@@ -2151,7 +2205,7 @@
     </row>
     <row r="81" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81" s="31"/>
       <c r="J81" s="15"/>
@@ -2166,12 +2220,12 @@
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="33"/>
       <c r="D84" s="33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E84" s="33"/>
       <c r="J84" s="15"/>
@@ -2180,7 +2234,7 @@
       <c r="A85" s="31"/>
       <c r="B85" s="31"/>
       <c r="D85" s="34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J85" s="15"/>
     </row>
@@ -2194,7 +2248,7 @@
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87" s="3"/>
       <c r="J87" s="15"/>
@@ -2277,7 +2331,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2300,7 +2354,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -238,7 +238,7 @@
     <t xml:space="preserve">Stina Blackstenius</t>
   </si>
   <si>
-    <t xml:space="preserve">Guro Reitan</t>
+    <t xml:space="preserve">Guro Reiten</t>
   </si>
   <si>
     <t xml:space="preserve">Barbra Banda</t>
@@ -671,8 +671,8 @@
   </sheetPr>
   <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -671,8 +671,8 @@
   </sheetPr>
   <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H45" activeCellId="0" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1834,11 +1834,15 @@
       <c r="E44" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F44" s="19"/>
+      <c r="F44" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="G44" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="19"/>
+      <c r="H44" s="19" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="45" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="16"/>
@@ -1854,11 +1858,15 @@
       <c r="E45" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="19"/>
+      <c r="F45" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="G45" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="19"/>
+      <c r="H45" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="16"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="93">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -242,6 +242,18 @@
   </si>
   <si>
     <t xml:space="preserve">Barbra Banda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alessia Russo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rachel Daly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lauren Hemp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadidiatou Diani</t>
   </si>
   <si>
     <t xml:space="preserve">Eglanti</t>
@@ -671,11 +683,11 @@
   </sheetPr>
   <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H45" activeCellId="0" sqref="H45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q16" activeCellId="0" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
@@ -1063,7 +1075,7 @@
         <v>42</v>
       </c>
       <c r="L14" s="15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1213,7 +1225,7 @@
         <v>57</v>
       </c>
       <c r="L19" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1387,6 +1399,12 @@
       <c r="H25" s="19" t="n">
         <v>0</v>
       </c>
+      <c r="J25" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16"/>
@@ -1411,6 +1429,12 @@
       <c r="H26" s="19" t="n">
         <v>1</v>
       </c>
+      <c r="J26" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16"/>
@@ -1435,6 +1459,12 @@
       <c r="H27" s="19" t="n">
         <v>1</v>
       </c>
+      <c r="J27" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16"/>
@@ -1459,6 +1489,12 @@
       <c r="H28" s="19" t="n">
         <v>0</v>
       </c>
+      <c r="J28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" s="15" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16"/>
@@ -1880,13 +1916,17 @@
         <v>15</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F46" s="19"/>
+        <v>71</v>
+      </c>
+      <c r="F46" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="G46" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H46" s="19"/>
+      <c r="H46" s="19" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="47" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="16"/>
@@ -1902,11 +1942,15 @@
       <c r="E47" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F47" s="19"/>
+      <c r="F47" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="G47" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="19"/>
+      <c r="H47" s="19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="16"/>
@@ -1922,11 +1966,15 @@
       <c r="E48" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="19"/>
+      <c r="F48" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="G48" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="19"/>
+      <c r="H48" s="19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="16"/>
@@ -1942,11 +1990,15 @@
       <c r="E49" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F49" s="19"/>
+      <c r="F49" s="19" t="n">
+        <v>3</v>
+      </c>
       <c r="G49" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="19"/>
+      <c r="H49" s="19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="16"/>
@@ -1962,11 +2014,15 @@
       <c r="E50" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F50" s="19"/>
+      <c r="F50" s="19" t="n">
+        <v>3</v>
+      </c>
       <c r="G50" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="19"/>
+      <c r="H50" s="19" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="16"/>
@@ -1982,11 +2038,15 @@
       <c r="E51" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F51" s="19"/>
+      <c r="F51" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="G51" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="19"/>
+      <c r="H51" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="16"/>
@@ -2002,11 +2062,15 @@
       <c r="E52" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F52" s="19"/>
+      <c r="F52" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="G52" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H52" s="19"/>
+      <c r="H52" s="19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="16"/>
@@ -2022,11 +2086,15 @@
       <c r="E53" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F53" s="19"/>
+      <c r="F53" s="19" t="n">
+        <v>1</v>
+      </c>
       <c r="G53" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="19"/>
+      <c r="H53" s="19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K54" s="15"/>
@@ -2047,11 +2115,11 @@
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="23" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
@@ -2061,7 +2129,7 @@
     </row>
     <row r="60" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C60" s="25"/>
       <c r="F60" s="2"/>
@@ -2070,7 +2138,7 @@
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C61" s="27"/>
       <c r="F61" s="15"/>
@@ -2081,7 +2149,7 @@
     </row>
     <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="28" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B62" s="28"/>
       <c r="C62" s="23"/>
@@ -2100,7 +2168,7 @@
     </row>
     <row r="64" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="31" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B64" s="31"/>
       <c r="F64" s="2"/>
@@ -2109,14 +2177,14 @@
     </row>
     <row r="65" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="31" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B65" s="31"/>
       <c r="J65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="31" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B66" s="31"/>
       <c r="F66" s="23"/>
@@ -2131,28 +2199,28 @@
     </row>
     <row r="68" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B68" s="31"/>
       <c r="J68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="31" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B69" s="31"/>
       <c r="J69" s="15"/>
     </row>
     <row r="70" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="31" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B70" s="31"/>
       <c r="J70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="31" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B71" s="31"/>
       <c r="J71" s="15"/>
@@ -2164,7 +2232,7 @@
     </row>
     <row r="73" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="31" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B73" s="31"/>
       <c r="J73" s="15"/>
@@ -2176,7 +2244,7 @@
     </row>
     <row r="75" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="31" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B75" s="31"/>
       <c r="J75" s="15"/>
@@ -2188,7 +2256,7 @@
     </row>
     <row r="77" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="31" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B77" s="31"/>
       <c r="I77" s="32"/>
@@ -2201,7 +2269,7 @@
     </row>
     <row r="79" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="31" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79" s="31"/>
       <c r="J79" s="15"/>
@@ -2213,7 +2281,7 @@
     </row>
     <row r="81" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="31" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B81" s="31"/>
       <c r="J81" s="15"/>
@@ -2228,12 +2296,12 @@
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="33"/>
       <c r="D84" s="33" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E84" s="33"/>
       <c r="J84" s="15"/>
@@ -2242,7 +2310,7 @@
       <c r="A85" s="31"/>
       <c r="B85" s="31"/>
       <c r="D85" s="34" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J85" s="15"/>
     </row>
@@ -2256,7 +2324,7 @@
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87" s="3"/>
       <c r="J87" s="15"/>
@@ -2339,7 +2407,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2362,7 +2430,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -253,7 +253,7 @@
     <t xml:space="preserve">Lauren Hemp</t>
   </si>
   <si>
-    <t xml:space="preserve">Kadidiatou Diani</t>
+    <t xml:space="preserve">Diani Kadidiatou</t>
   </si>
   <si>
     <t xml:space="preserve">Eglanti</t>
@@ -684,7 +684,7 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q16" activeCellId="0" sqref="Q16"/>
+      <selection pane="topLeft" activeCell="J28" activeCellId="0" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">Aitana Bonmati</t>
   </si>
   <si>
-    <t xml:space="preserve">yyy</t>
+    <t xml:space="preserve">Saksa</t>
   </si>
   <si>
     <t xml:space="preserve">Australia</t>
@@ -206,9 +206,6 @@
   </si>
   <si>
     <t xml:space="preserve">Alba Redondo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saksa</t>
   </si>
   <si>
     <t xml:space="preserve">Marokko</t>
@@ -684,7 +681,7 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J28" activeCellId="0" sqref="J28"/>
+      <selection pane="topLeft" activeCell="O19" activeCellId="0" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1204,13 +1201,13 @@
         <v>45131</v>
       </c>
       <c r="C19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="F19" s="19" t="n">
         <v>6</v>
@@ -1222,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L19" s="15" t="n">
         <v>3</v>
@@ -1234,13 +1231,13 @@
         <v>45131</v>
       </c>
       <c r="C20" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="F20" s="19" t="n">
         <v>4</v>
@@ -1252,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L20" s="15" t="n">
         <v>1</v>
@@ -1264,13 +1261,13 @@
         <v>45132</v>
       </c>
       <c r="C21" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="F21" s="19" t="n">
         <v>2</v>
@@ -1282,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L21" s="15" t="n">
         <v>1</v>
@@ -1312,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L22" s="15" t="n">
         <v>1</v>
@@ -1342,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L23" s="15" t="n">
         <v>1</v>
@@ -1372,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L24" s="15" t="n">
         <v>1</v>
@@ -1400,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L25" s="15" t="n">
         <v>1</v>
@@ -1430,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L26" s="15" t="n">
         <v>1</v>
@@ -1460,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L27" s="15" t="n">
         <v>1</v>
@@ -1490,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L28" s="15" t="n">
         <v>3</v>
@@ -1628,7 +1625,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F34" s="19" t="n">
         <v>2</v>
@@ -1646,7 +1643,7 @@
         <v>45136</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>15</v>
@@ -1670,13 +1667,13 @@
         <v>45137</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F36" s="19" t="n">
         <v>0</v>
@@ -1694,13 +1691,13 @@
         <v>45137</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F37" s="19" t="n">
         <v>1</v>
@@ -1916,7 +1913,7 @@
         <v>15</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F46" s="19" t="n">
         <v>1</v>
@@ -2006,7 +2003,7 @@
         <v>45140</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>15</v>
@@ -2036,7 +2033,7 @@
         <v>15</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F51" s="19" t="n">
         <v>0</v>
@@ -2054,13 +2051,13 @@
         <v>45141</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F52" s="19" t="n">
         <v>1</v>
@@ -2078,13 +2075,13 @@
         <v>45141</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F53" s="19" t="n">
         <v>1</v>
@@ -2115,11 +2112,11 @@
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B59" s="22"/>
       <c r="C59" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
@@ -2129,7 +2126,7 @@
     </row>
     <row r="60" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60" s="25"/>
       <c r="F60" s="2"/>
@@ -2138,7 +2135,7 @@
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" s="27"/>
       <c r="F61" s="15"/>
@@ -2149,7 +2146,7 @@
     </row>
     <row r="62" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" s="28"/>
       <c r="C62" s="23"/>
@@ -2168,7 +2165,7 @@
     </row>
     <row r="64" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B64" s="31"/>
       <c r="F64" s="2"/>
@@ -2177,14 +2174,14 @@
     </row>
     <row r="65" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B65" s="31"/>
       <c r="J65" s="15"/>
     </row>
     <row r="66" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B66" s="31"/>
       <c r="F66" s="23"/>
@@ -2199,28 +2196,28 @@
     </row>
     <row r="68" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B68" s="31"/>
       <c r="J68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B69" s="31"/>
       <c r="J69" s="15"/>
     </row>
     <row r="70" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B70" s="31"/>
       <c r="J70" s="15"/>
     </row>
     <row r="71" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B71" s="31"/>
       <c r="J71" s="15"/>
@@ -2232,7 +2229,7 @@
     </row>
     <row r="73" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B73" s="31"/>
       <c r="J73" s="15"/>
@@ -2244,7 +2241,7 @@
     </row>
     <row r="75" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B75" s="31"/>
       <c r="J75" s="15"/>
@@ -2256,7 +2253,7 @@
     </row>
     <row r="77" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B77" s="31"/>
       <c r="I77" s="32"/>
@@ -2269,7 +2266,7 @@
     </row>
     <row r="79" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B79" s="31"/>
       <c r="J79" s="15"/>
@@ -2281,7 +2278,7 @@
     </row>
     <row r="81" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B81" s="31"/>
       <c r="J81" s="15"/>
@@ -2296,12 +2293,12 @@
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="33"/>
       <c r="D84" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E84" s="33"/>
       <c r="J84" s="15"/>
@@ -2310,7 +2307,7 @@
       <c r="A85" s="31"/>
       <c r="B85" s="31"/>
       <c r="D85" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J85" s="15"/>
     </row>
@@ -2324,7 +2321,7 @@
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87" s="3"/>
       <c r="J87" s="15"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -109,6 +109,9 @@
     <t xml:space="preserve">Esther Gonzalez</t>
   </si>
   <si>
+    <t xml:space="preserve">Brasilia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nigeria</t>
   </si>
   <si>
@@ -212,9 +215,6 @@
   </si>
   <si>
     <t xml:space="preserve">Lauren James</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brasilia</t>
   </si>
   <si>
     <t xml:space="preserve">Panama</t>
@@ -680,8 +680,8 @@
   </sheetPr>
   <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O19" activeCellId="0" sqref="O19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S7" activeCellId="0" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -857,6 +857,9 @@
       <c r="O7" s="20"/>
       <c r="Q7" s="20"/>
       <c r="R7" s="20"/>
+      <c r="S7" s="15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="16"/>
@@ -864,13 +867,13 @@
         <v>45128</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="19" t="n">
         <v>0</v>
@@ -882,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="15" t="n">
@@ -896,13 +899,13 @@
         <v>45128</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" s="19" t="n">
         <v>0</v>
@@ -914,7 +917,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="15" t="n">
@@ -928,13 +931,13 @@
         <v>45128</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="19" t="n">
         <v>3</v>
@@ -946,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="15" t="n">
@@ -960,13 +963,13 @@
         <v>45129</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="19" t="n">
         <v>3</v>
@@ -978,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="15" t="n">
@@ -991,13 +994,13 @@
         <v>45129</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="19" t="n">
         <v>0</v>
@@ -1009,7 +1012,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L12" s="15" t="n">
         <v>2</v>
@@ -1021,13 +1024,13 @@
         <v>45129</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="19" t="n">
         <v>1</v>
@@ -1039,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L13" s="15" t="n">
         <v>2</v>
@@ -1051,13 +1054,13 @@
         <v>45129</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" s="19" t="n">
         <v>1</v>
@@ -1069,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L14" s="15" t="n">
         <v>4</v>
@@ -1081,13 +1084,13 @@
         <v>45130</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" s="19" t="n">
         <v>2</v>
@@ -1099,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L15" s="15" t="n">
         <v>1</v>
@@ -1111,13 +1114,13 @@
         <v>45130</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16" s="19" t="n">
         <v>1</v>
@@ -1129,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L16" s="15" t="n">
         <v>2</v>
@@ -1141,13 +1144,13 @@
         <v>45130</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F17" s="19" t="n">
         <v>0</v>
@@ -1159,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L17" s="15" t="n">
         <v>1</v>
@@ -1171,13 +1174,13 @@
         <v>45131</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F18" s="19" t="n">
         <v>1</v>
@@ -1189,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L18" s="15" t="n">
         <v>2</v>
@@ -1207,7 +1210,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F19" s="19" t="n">
         <v>6</v>
@@ -1219,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L19" s="15" t="n">
         <v>3</v>
@@ -1231,7 +1234,7 @@
         <v>45131</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>15</v>
@@ -1297,7 +1300,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F22" s="19" t="n">
         <v>0</v>
@@ -1321,7 +1324,7 @@
         <v>45132</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>15</v>
@@ -1351,13 +1354,13 @@
         <v>45133</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F24" s="19" t="n">
         <v>2</v>
@@ -1381,7 +1384,7 @@
         <v>45133</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>15</v>
@@ -1409,13 +1412,13 @@
         <v>45133</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F26" s="19" t="n">
         <v>2</v>
@@ -1439,7 +1442,7 @@
         <v>45134</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>15</v>
@@ -1469,13 +1472,13 @@
         <v>45134</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F28" s="19" t="n">
         <v>2</v>
@@ -1505,7 +1508,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F29" s="19" t="n">
         <v>2</v>
@@ -1523,13 +1526,13 @@
         <v>45135</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" s="19" t="n">
         <v>2</v>
@@ -1547,13 +1550,13 @@
         <v>45135</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F31" s="19" t="n">
         <v>1</v>
@@ -1571,13 +1574,13 @@
         <v>45135</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F32" s="19" t="n">
         <v>1</v>
@@ -1595,13 +1598,13 @@
         <v>45136</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F33" s="19" t="n">
         <v>5</v>
@@ -1619,13 +1622,13 @@
         <v>45136</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="F34" s="19" t="n">
         <v>2</v>
@@ -1649,7 +1652,7 @@
         <v>15</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F35" s="19" t="n">
         <v>0</v>
@@ -1673,7 +1676,7 @@
         <v>15</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F36" s="19" t="n">
         <v>0</v>
@@ -1721,7 +1724,7 @@
         <v>15</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F38" s="19" t="n">
         <v>6</v>
@@ -1739,7 +1742,7 @@
         <v>45137</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>15</v>
@@ -1763,13 +1766,13 @@
         <v>45138</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F40" s="19" t="n">
         <v>4</v>
@@ -1787,13 +1790,13 @@
         <v>45138</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F41" s="19" t="n">
         <v>1</v>
@@ -1817,7 +1820,7 @@
         <v>15</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F42" s="19" t="n">
         <v>0</v>
@@ -1835,7 +1838,7 @@
         <v>45138</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>15</v>
@@ -1859,13 +1862,13 @@
         <v>45139</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44" s="19" t="n">
         <v>0</v>
@@ -1883,13 +1886,13 @@
         <v>45139</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F45" s="19" t="n">
         <v>0</v>
@@ -1907,7 +1910,7 @@
         <v>45139</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>15</v>
@@ -1931,13 +1934,13 @@
         <v>45139</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F47" s="19" t="n">
         <v>0</v>
@@ -1955,13 +1958,13 @@
         <v>45140</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" s="19" t="n">
         <v>0</v>
@@ -1979,13 +1982,13 @@
         <v>45140</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F49" s="19" t="n">
         <v>3</v>
@@ -2009,7 +2012,7 @@
         <v>15</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F50" s="19" t="n">
         <v>3</v>
@@ -2027,13 +2030,13 @@
         <v>45140</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="F51" s="19" t="n">
         <v>0</v>
@@ -2051,7 +2054,7 @@
         <v>45141</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>15</v>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -121,6 +121,9 @@
     <t xml:space="preserve">Hannah Wilkinson</t>
   </si>
   <si>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Filippiinit</t>
   </si>
   <si>
@@ -137,9 +140,6 @@
   </si>
   <si>
     <t xml:space="preserve">Seraina Severin Piubel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam</t>
@@ -681,10 +681,10 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S7" activeCellId="0" sqref="S7"/>
+      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
@@ -892,6 +892,9 @@
         <v>1</v>
       </c>
       <c r="Q8" s="20"/>
+      <c r="S8" s="15" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="16"/>
@@ -899,13 +902,13 @@
         <v>45128</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="19" t="n">
         <v>0</v>
@@ -917,13 +920,16 @@
         <v>2</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="15" t="n">
         <v>1</v>
       </c>
       <c r="Q9" s="20"/>
+      <c r="S9" s="15" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="16"/>
@@ -931,13 +937,13 @@
         <v>45128</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="19" t="n">
         <v>3</v>
@@ -949,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="15" t="n">
@@ -963,7 +969,7 @@
         <v>45129</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>15</v>
@@ -1135,7 +1141,7 @@
         <v>49</v>
       </c>
       <c r="L16" s="15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1195,7 +1201,7 @@
         <v>55</v>
       </c>
       <c r="L18" s="15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,7 +1306,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F22" s="19" t="n">
         <v>0</v>
@@ -1324,7 +1330,7 @@
         <v>45132</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>15</v>
@@ -1345,7 +1351,7 @@
         <v>64</v>
       </c>
       <c r="L23" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1360,7 +1366,7 @@
         <v>15</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F24" s="19" t="n">
         <v>2</v>
@@ -1384,7 +1390,7 @@
         <v>45133</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>15</v>
@@ -1442,7 +1448,7 @@
         <v>45134</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>15</v>
@@ -1724,7 +1730,7 @@
         <v>15</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F38" s="19" t="n">
         <v>6</v>
@@ -1742,7 +1748,7 @@
         <v>45137</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>15</v>
@@ -1772,7 +1778,7 @@
         <v>15</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F40" s="19" t="n">
         <v>4</v>
@@ -1790,7 +1796,7 @@
         <v>45138</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>15</v>
@@ -1892,7 +1898,7 @@
         <v>15</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F45" s="19" t="n">
         <v>0</v>
@@ -2407,7 +2413,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2430,7 +2436,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -97,6 +97,9 @@
     <t xml:space="preserve">Aitana Bonmati</t>
   </si>
   <si>
+    <t xml:space="preserve">Espanja</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saksa</t>
   </si>
   <si>
@@ -109,6 +112,9 @@
     <t xml:space="preserve">Esther Gonzalez</t>
   </si>
   <si>
+    <t xml:space="preserve">Ruotsi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brasilia</t>
   </si>
   <si>
@@ -133,9 +139,6 @@
     <t xml:space="preserve">Ramona Bachmann</t>
   </si>
   <si>
-    <t xml:space="preserve">Espanja</t>
-  </si>
-  <si>
     <t xml:space="preserve">Costa Rica</t>
   </si>
   <si>
@@ -173,9 +176,6 @@
   </si>
   <si>
     <t xml:space="preserve">Alex Popp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruotsi</t>
   </si>
   <si>
     <t xml:space="preserve">Etelä-Afrikka</t>
@@ -681,10 +681,10 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
+      <selection pane="topLeft" activeCell="Q7" activeCellId="0" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
@@ -817,10 +817,12 @@
       </c>
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
-      <c r="Q6" s="20"/>
+      <c r="Q6" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="R6" s="20"/>
       <c r="S6" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,13 +831,13 @@
         <v>45127</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="19" t="n">
         <v>1</v>
@@ -847,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7" s="20"/>
       <c r="L7" s="15" t="n">
@@ -855,10 +857,12 @@
       </c>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
-      <c r="Q7" s="20"/>
+      <c r="Q7" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="R7" s="20"/>
       <c r="S7" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -867,13 +871,13 @@
         <v>45128</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="19" t="n">
         <v>0</v>
@@ -885,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="15" t="n">
@@ -893,7 +897,7 @@
       </c>
       <c r="Q8" s="20"/>
       <c r="S8" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -902,13 +906,13 @@
         <v>45128</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" s="19" t="n">
         <v>0</v>
@@ -920,7 +924,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="15" t="n">
@@ -937,13 +941,13 @@
         <v>45128</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="19" t="n">
         <v>3</v>
@@ -955,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="15" t="n">
@@ -969,13 +973,13 @@
         <v>45129</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="19" t="n">
         <v>3</v>
@@ -987,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="15" t="n">
@@ -1000,13 +1004,13 @@
         <v>45129</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="19" t="n">
         <v>0</v>
@@ -1018,7 +1022,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L12" s="15" t="n">
         <v>2</v>
@@ -1030,13 +1034,13 @@
         <v>45129</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="19" t="n">
         <v>1</v>
@@ -1048,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L13" s="15" t="n">
         <v>2</v>
@@ -1060,13 +1064,13 @@
         <v>45129</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" s="19" t="n">
         <v>1</v>
@@ -1078,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L14" s="15" t="n">
         <v>4</v>
@@ -1090,7 +1094,7 @@
         <v>45130</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>15</v>
@@ -1210,7 +1214,7 @@
         <v>45131</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>15</v>
@@ -1240,7 +1244,7 @@
         <v>45131</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>15</v>
@@ -1306,7 +1310,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F22" s="19" t="n">
         <v>0</v>
@@ -1330,7 +1334,7 @@
         <v>45132</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>15</v>
@@ -1360,13 +1364,13 @@
         <v>45133</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" s="19" t="n">
         <v>2</v>
@@ -1390,7 +1394,7 @@
         <v>45133</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>15</v>
@@ -1418,13 +1422,13 @@
         <v>45133</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F26" s="19" t="n">
         <v>2</v>
@@ -1448,13 +1452,13 @@
         <v>45134</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F27" s="19" t="n">
         <v>1</v>
@@ -1484,7 +1488,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F28" s="19" t="n">
         <v>2</v>
@@ -1508,13 +1512,13 @@
         <v>45134</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F29" s="19" t="n">
         <v>2</v>
@@ -1556,13 +1560,13 @@
         <v>45135</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F31" s="19" t="n">
         <v>1</v>
@@ -1580,13 +1584,13 @@
         <v>45135</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F32" s="19" t="n">
         <v>1</v>
@@ -1604,7 +1608,7 @@
         <v>45136</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>15</v>
@@ -1634,7 +1638,7 @@
         <v>15</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F34" s="19" t="n">
         <v>2</v>
@@ -1700,7 +1704,7 @@
         <v>45137</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>15</v>
@@ -1730,7 +1734,7 @@
         <v>15</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F38" s="19" t="n">
         <v>6</v>
@@ -1748,7 +1752,7 @@
         <v>45137</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>15</v>
@@ -1772,13 +1776,13 @@
         <v>45138</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F40" s="19" t="n">
         <v>4</v>
@@ -1796,13 +1800,13 @@
         <v>45138</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F41" s="19" t="n">
         <v>1</v>
@@ -1820,13 +1824,13 @@
         <v>45138</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F42" s="19" t="n">
         <v>0</v>
@@ -1844,13 +1848,13 @@
         <v>45138</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F43" s="19" t="n">
         <v>0</v>
@@ -1868,7 +1872,7 @@
         <v>45139</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>15</v>
@@ -1898,7 +1902,7 @@
         <v>15</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F45" s="19" t="n">
         <v>0</v>
@@ -1916,7 +1920,7 @@
         <v>45139</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>15</v>
@@ -1940,13 +1944,13 @@
         <v>45139</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F47" s="19" t="n">
         <v>0</v>
@@ -1970,7 +1974,7 @@
         <v>15</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F48" s="19" t="n">
         <v>0</v>
@@ -2042,7 +2046,7 @@
         <v>15</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F51" s="19" t="n">
         <v>0</v>
@@ -2090,7 +2094,7 @@
         <v>15</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F53" s="19" t="n">
         <v>1</v>
@@ -2413,7 +2417,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2436,7 +2440,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -127,6 +127,9 @@
     <t xml:space="preserve">Hannah Wilkinson</t>
   </si>
   <si>
+    <t xml:space="preserve">Englanti</t>
+  </si>
+  <si>
     <t xml:space="preserve">USA</t>
   </si>
   <si>
@@ -158,9 +161,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sophia Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Englanti</t>
   </si>
   <si>
     <t xml:space="preserve">Haiti</t>
@@ -680,11 +680,11 @@
   </sheetPr>
   <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q7" activeCellId="0" sqref="Q7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
@@ -895,9 +895,11 @@
       <c r="L8" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="Q8" s="20"/>
+      <c r="Q8" s="20" t="s">
+        <v>28</v>
+      </c>
       <c r="S8" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -906,13 +908,13 @@
         <v>45128</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="19" t="n">
         <v>0</v>
@@ -924,13 +926,15 @@
         <v>2</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="Q9" s="20"/>
+      <c r="Q9" s="20" t="s">
+        <v>20</v>
+      </c>
       <c r="S9" s="15" t="s">
         <v>16</v>
       </c>
@@ -947,7 +951,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="19" t="n">
         <v>3</v>
@@ -959,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="15" t="n">
@@ -973,13 +977,13 @@
         <v>45129</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="19" t="n">
         <v>3</v>
@@ -991,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="15" t="n">
@@ -1004,13 +1008,13 @@
         <v>45129</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="19" t="n">
         <v>0</v>
@@ -1022,7 +1026,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L12" s="15" t="n">
         <v>2</v>
@@ -1034,7 +1038,7 @@
         <v>45129</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>15</v>
@@ -1310,7 +1314,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" s="19" t="n">
         <v>0</v>
@@ -1334,7 +1338,7 @@
         <v>45132</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>15</v>
@@ -1364,13 +1368,13 @@
         <v>45133</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F24" s="19" t="n">
         <v>2</v>
@@ -1413,7 +1417,7 @@
         <v>66</v>
       </c>
       <c r="L25" s="15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1428,7 +1432,7 @@
         <v>15</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F26" s="19" t="n">
         <v>2</v>
@@ -1452,7 +1456,7 @@
         <v>45134</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>15</v>
@@ -1488,7 +1492,7 @@
         <v>15</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F28" s="19" t="n">
         <v>2</v>
@@ -1560,7 +1564,7 @@
         <v>45135</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>15</v>
@@ -1734,7 +1738,7 @@
         <v>15</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F38" s="19" t="n">
         <v>6</v>
@@ -1752,7 +1756,7 @@
         <v>45137</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>15</v>
@@ -1776,7 +1780,7 @@
         <v>45138</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>15</v>
@@ -1800,13 +1804,13 @@
         <v>45138</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F41" s="19" t="n">
         <v>1</v>
@@ -1872,7 +1876,7 @@
         <v>45139</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>15</v>
@@ -1902,7 +1906,7 @@
         <v>15</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F45" s="19" t="n">
         <v>0</v>
@@ -2417,7 +2421,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2440,7 +2444,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -148,6 +148,9 @@
     <t xml:space="preserve">Seraina Severin Piubel</t>
   </si>
   <si>
+    <t xml:space="preserve">Ranska</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vietnam</t>
   </si>
   <si>
@@ -191,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">Jennifer Hermoso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranska</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaika</t>
@@ -681,7 +681,7 @@
   <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
+      <selection pane="topLeft" activeCell="S10" activeCellId="0" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -970,6 +970,9 @@
         <v>1</v>
       </c>
       <c r="Q10" s="20"/>
+      <c r="S10" s="15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16"/>
@@ -983,7 +986,7 @@
         <v>15</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="19" t="n">
         <v>3</v>
@@ -995,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="15" t="n">
@@ -1008,13 +1011,13 @@
         <v>45129</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" s="19" t="n">
         <v>0</v>
@@ -1026,7 +1029,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L12" s="15" t="n">
         <v>2</v>
@@ -1044,7 +1047,7 @@
         <v>15</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13" s="19" t="n">
         <v>1</v>
@@ -1056,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L13" s="15" t="n">
         <v>2</v>
@@ -1068,13 +1071,13 @@
         <v>45129</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" s="19" t="n">
         <v>1</v>
@@ -1086,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L14" s="15" t="n">
         <v>4</v>
@@ -1104,7 +1107,7 @@
         <v>15</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" s="19" t="n">
         <v>2</v>
@@ -1116,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L15" s="15" t="n">
         <v>1</v>
@@ -1128,13 +1131,13 @@
         <v>45130</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16" s="19" t="n">
         <v>1</v>
@@ -1146,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L16" s="15" t="n">
         <v>3</v>
@@ -1158,7 +1161,7 @@
         <v>45130</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>15</v>
@@ -1368,7 +1371,7 @@
         <v>45133</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>15</v>
@@ -1432,7 +1435,7 @@
         <v>15</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F26" s="19" t="n">
         <v>2</v>
@@ -1486,13 +1489,13 @@
         <v>45134</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F28" s="19" t="n">
         <v>2</v>
@@ -1546,7 +1549,7 @@
         <v>15</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F30" s="19" t="n">
         <v>2</v>
@@ -1570,7 +1573,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F31" s="19" t="n">
         <v>1</v>
@@ -1588,13 +1591,13 @@
         <v>45135</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F32" s="19" t="n">
         <v>1</v>
@@ -1636,7 +1639,7 @@
         <v>45136</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>15</v>
@@ -1780,7 +1783,7 @@
         <v>45138</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>15</v>
@@ -1810,7 +1813,7 @@
         <v>15</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F41" s="19" t="n">
         <v>1</v>
@@ -1876,13 +1879,13 @@
         <v>45139</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F44" s="19" t="n">
         <v>0</v>
@@ -1900,7 +1903,7 @@
         <v>45139</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>15</v>
@@ -1924,7 +1927,7 @@
         <v>45139</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>15</v>
@@ -1948,13 +1951,13 @@
         <v>45139</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F47" s="19" t="n">
         <v>0</v>
@@ -1996,7 +1999,7 @@
         <v>45140</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>15</v>
@@ -2026,7 +2029,7 @@
         <v>15</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F50" s="19" t="n">
         <v>3</v>

--- a/Data/11oikearivi.xlsx
+++ b/Data/11oikearivi.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
   <si>
     <t xml:space="preserve">KISAVEIKKAUS</t>
   </si>
@@ -680,11 +680,11 @@
   </sheetPr>
   <dimension ref="A1:V129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S10" activeCellId="0" sqref="S10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L28" activeCellId="0" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.28"/>
@@ -820,7 +820,9 @@
       <c r="Q6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="20"/>
+      <c r="R6" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="S6" s="15" t="s">
         <v>19</v>
       </c>
@@ -1062,7 +1064,7 @@
         <v>42</v>
       </c>
       <c r="L13" s="15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" s="15" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1302,7 +1304,7 @@
         <v>62</v>
       </c>
       <c r="L21" s="15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1510,7 +1512,7 @@
         <v>69</v>
       </c>
       <c r="L28" s="15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" s="15" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2424,7 +2426,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2447,7 +2449,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
